--- a/MenstruAccion/cuanto_cuesta_menstruar/2021 Septiembre/Fuentes/serie_inflacion.xlsx
+++ b/MenstruAccion/cuanto_cuesta_menstruar/2021 Septiembre/Fuentes/serie_inflacion.xlsx
@@ -147,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,11 +176,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,13 +269,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -631,15 +639,102 @@
       <c r="A26" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="5" t="n">
         <v>435.8657</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="6" t="n">
         <v>461.3238</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="7" t="n">
         <v>472.856</v>
       </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>453.6503</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>481.2407</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>490.482</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>468.725</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>496.1796</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>513.7918</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>483.6049</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>512.2593</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>530.2766</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>498.0987</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>529.7087</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>550.5464</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>510.3942</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>537.5867</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>573.6501</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>528.4968</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>553.4373</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>598.3555</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
